--- a/src/test/resources/update-excel.xlsx
+++ b/src/test/resources/update-excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
   <si>
     <t>TABLE_SCHEMA</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>datetime</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
   </si>
   <si>
     <t/>
@@ -202,8 +205,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -222,108 +225,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,14 +323,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -358,6 +330,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -365,8 +346,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,187 +395,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,17 +639,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,16 +682,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,148 +715,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1276,12 +1279,14 @@
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:9">
@@ -1292,10 +1297,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -1303,12 +1308,14 @@
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:9">
@@ -1319,13 +1326,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -1333,7 +1340,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:9">
@@ -1344,23 +1351,23 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:9">
@@ -1371,23 +1378,23 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:9">
@@ -1395,10 +1402,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -1422,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -1436,12 +1443,14 @@
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:9">
@@ -1449,13 +1458,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>19</v>
@@ -1463,12 +1472,14 @@
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:9">
@@ -1476,26 +1487,26 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:9">
@@ -1503,28 +1514,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:9">
@@ -1532,26 +1543,26 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="20" customHeight="1" spans="1:9">
@@ -1559,13 +1570,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
@@ -1584,13 +1595,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
@@ -1600,7 +1611,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>16</v>
@@ -1611,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
@@ -1623,14 +1634,16 @@
         <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="20" customHeight="1" spans="1:9">
@@ -1638,26 +1651,28 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/update-excel.xlsx
+++ b/src/test/resources/update-excel.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView windowWidth="28800" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>TABLE_SCHEMA</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>user_role</t>
+  </si>
+  <si>
+    <t>(-)-&gt;user_role_id</t>
   </si>
   <si>
     <t>user_id</t>
@@ -163,7 +166,6 @@
         <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>用户</t>
     </r>
@@ -171,7 +173,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -186,7 +188,6 @@
         <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>角色</t>
     </r>
@@ -194,10 +195,31 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
+  </si>
+  <si>
+    <t>(-)-&gt;remarks</t>
+  </si>
+  <si>
+    <t>sys_cofig</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>bigint(20) unsigned</t>
   </si>
 </sst>
 </file>
@@ -205,18 +227,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -224,10 +251,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,15 +293,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,7 +366,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,35 +386,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,70 +400,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="34">
@@ -395,78 +428,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,108 +609,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,32 +648,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -663,26 +670,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,6 +709,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -715,156 +748,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -874,57 +911,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1191,492 +1245,696 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="D15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:9">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
+    <row r="21" ht="20" customHeight="1" spans="1:9">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="22" ht="20" customHeight="1" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="H22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:9">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/update-excel.xlsx
+++ b/src/test/resources/update-excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>TABLE_SCHEMA</t>
   </si>
@@ -275,16 +275,19 @@
   <si>
     <t>id-&gt;order_id</t>
   </si>
+  <si>
+    <t>order_new_feat_not_change</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -315,17 +318,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,9 +338,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,25 +368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +379,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,37 +408,41 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,16 +454,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,19 +494,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,103 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,55 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,23 +715,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,9 +738,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,6 +758,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,19 +804,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,148 +814,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1302,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A54" sqref="$A54:$XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2742,6 +2745,110 @@
         <v>21</v>
       </c>
     </row>
+    <row r="54" ht="20" customHeight="1" spans="1:9">
+      <c r="A54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" ht="20" customHeight="1" spans="1:9">
+      <c r="A56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" spans="1:9">
+      <c r="A57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
